--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H2">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I2">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J2">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.2673007105096</v>
+        <v>0.04936133333333333</v>
       </c>
       <c r="N2">
-        <v>15.2673007105096</v>
+        <v>0.148084</v>
       </c>
       <c r="O2">
-        <v>0.8079660570778144</v>
+        <v>0.002475496704993591</v>
       </c>
       <c r="P2">
-        <v>0.8079660570778144</v>
+        <v>0.002635547730441438</v>
       </c>
       <c r="Q2">
-        <v>625.8343465376958</v>
+        <v>2.049463111634667</v>
       </c>
       <c r="R2">
-        <v>625.8343465376958</v>
+        <v>18.445168004712</v>
       </c>
       <c r="S2">
-        <v>0.6075683310855738</v>
+        <v>0.001808378632926183</v>
       </c>
       <c r="T2">
-        <v>0.6075683310855738</v>
+        <v>0.002011066897083875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H3">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I3">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J3">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.62866722869706</v>
+        <v>16.251742</v>
       </c>
       <c r="N3">
-        <v>3.62866722869706</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O3">
-        <v>0.1920339429221856</v>
+        <v>0.8150333683194528</v>
       </c>
       <c r="P3">
-        <v>0.1920339429221856</v>
+        <v>0.8677286218055926</v>
       </c>
       <c r="Q3">
-        <v>148.7456510443342</v>
+        <v>674.765924653652</v>
       </c>
       <c r="R3">
-        <v>148.7456510443342</v>
+        <v>6072.893321882867</v>
       </c>
       <c r="S3">
-        <v>0.1444042620243116</v>
+        <v>0.5953911897428964</v>
       </c>
       <c r="T3">
-        <v>0.1444042620243116</v>
+        <v>0.6621243420520992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H4">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I4">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J4">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>15.2673007105096</v>
+        <v>0.006136</v>
       </c>
       <c r="N4">
-        <v>15.2673007105096</v>
+        <v>0.018408</v>
       </c>
       <c r="O4">
-        <v>0.8079660570778144</v>
+        <v>0.0003077236119062291</v>
       </c>
       <c r="P4">
-        <v>0.8079660570778144</v>
+        <v>0.0003276192068148213</v>
       </c>
       <c r="Q4">
-        <v>102.8892984697783</v>
+        <v>0.254764302416</v>
       </c>
       <c r="R4">
-        <v>102.8892984697783</v>
+        <v>2.292878721744</v>
       </c>
       <c r="S4">
-        <v>0.09988630330643482</v>
+        <v>0.0002247956151569729</v>
       </c>
       <c r="T4">
-        <v>0.09988630330643482</v>
+        <v>0.0002499913524858862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H5">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I5">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J5">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.62866722869706</v>
+        <v>3.632732</v>
       </c>
       <c r="N5">
-        <v>3.62866722869706</v>
+        <v>7.265464</v>
       </c>
       <c r="O5">
-        <v>0.1920339429221856</v>
+        <v>0.1821834113636472</v>
       </c>
       <c r="P5">
-        <v>0.1920339429221856</v>
+        <v>0.1293082112571511</v>
       </c>
       <c r="Q5">
-        <v>24.45429173238923</v>
+        <v>150.829601343592</v>
       </c>
       <c r="R5">
-        <v>24.45429173238923</v>
+        <v>904.977608061552</v>
       </c>
       <c r="S5">
-        <v>0.02374055258859551</v>
+        <v>0.1330870639896383</v>
       </c>
       <c r="T5">
-        <v>0.02374055258859551</v>
+        <v>0.09866922923715322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H6">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J6">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.2673007105096</v>
+        <v>0.04936133333333333</v>
       </c>
       <c r="N6">
-        <v>15.2673007105096</v>
+        <v>0.148084</v>
       </c>
       <c r="O6">
-        <v>0.8079660570778144</v>
+        <v>0.002475496704993591</v>
       </c>
       <c r="P6">
-        <v>0.8079660570778144</v>
+        <v>0.002635547730441438</v>
       </c>
       <c r="Q6">
-        <v>2.660282278258762</v>
+        <v>0.3546058788528889</v>
       </c>
       <c r="R6">
-        <v>2.660282278258762</v>
+        <v>3.191452909676</v>
       </c>
       <c r="S6">
-        <v>0.002582637518953827</v>
+        <v>0.0003128925281880774</v>
       </c>
       <c r="T6">
-        <v>0.002582637518953827</v>
+        <v>0.0003479624202182284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H7">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J7">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.62866722869706</v>
+        <v>16.251742</v>
       </c>
       <c r="N7">
-        <v>3.62866722869706</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O7">
-        <v>0.1920339429221856</v>
+        <v>0.8150333683194528</v>
       </c>
       <c r="P7">
-        <v>0.1920339429221856</v>
+        <v>0.8677286218055926</v>
       </c>
       <c r="Q7">
-        <v>0.6322845999591837</v>
+        <v>116.7505589017127</v>
       </c>
       <c r="R7">
-        <v>0.6322845999591837</v>
+        <v>1050.755030115414</v>
       </c>
       <c r="S7">
-        <v>0.0006138303231415443</v>
+        <v>0.1030168412895457</v>
       </c>
       <c r="T7">
-        <v>0.0006138303231415443</v>
+        <v>0.1145632643448765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.524926738560301</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H8">
-        <v>0.524926738560301</v>
+        <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.009629496357662767</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J8">
-        <v>0.009629496357662767</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>15.2673007105096</v>
+        <v>0.006136</v>
       </c>
       <c r="N8">
-        <v>15.2673007105096</v>
+        <v>0.018408</v>
       </c>
       <c r="O8">
-        <v>0.8079660570778144</v>
+        <v>0.0003077236119062291</v>
       </c>
       <c r="P8">
-        <v>0.8079660570778144</v>
+        <v>0.0003276192068148213</v>
       </c>
       <c r="Q8">
-        <v>8.014214368587171</v>
+        <v>0.04408028563466667</v>
       </c>
       <c r="R8">
-        <v>8.014214368587171</v>
+        <v>0.3967225707120001</v>
       </c>
       <c r="S8">
-        <v>0.007780306203745962</v>
+        <v>3.889498972803362E-05</v>
       </c>
       <c r="T8">
-        <v>0.007780306203745962</v>
+        <v>4.325445173939891E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.524926738560301</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H9">
-        <v>0.524926738560301</v>
+        <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.009629496357662767</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J9">
-        <v>0.009629496357662767</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.62866722869706</v>
+        <v>3.632732</v>
       </c>
       <c r="N9">
-        <v>3.62866722869706</v>
+        <v>7.265464</v>
       </c>
       <c r="O9">
-        <v>0.1920339429221856</v>
+        <v>0.1821834113636472</v>
       </c>
       <c r="P9">
-        <v>0.1920339429221856</v>
+        <v>0.1293082112571511</v>
       </c>
       <c r="Q9">
-        <v>1.904784453680594</v>
+        <v>26.09710954924933</v>
       </c>
       <c r="R9">
-        <v>1.904784453680594</v>
+        <v>156.582657295496</v>
       </c>
       <c r="S9">
-        <v>0.001849190153916806</v>
+        <v>0.02302722845904482</v>
       </c>
       <c r="T9">
-        <v>0.001849190153916806</v>
+        <v>0.01707212418254781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.08219597134768</v>
+        <v>0.229894</v>
       </c>
       <c r="H10">
-        <v>6.08219597134768</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I10">
-        <v>0.1115745867953259</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J10">
-        <v>0.1115745867953259</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>15.2673007105096</v>
+        <v>0.04936133333333333</v>
       </c>
       <c r="N10">
-        <v>15.2673007105096</v>
+        <v>0.148084</v>
       </c>
       <c r="O10">
-        <v>0.8079660570778144</v>
+        <v>0.002475496704993591</v>
       </c>
       <c r="P10">
-        <v>0.8079660570778144</v>
+        <v>0.002635547730441438</v>
       </c>
       <c r="Q10">
-        <v>92.85871487481506</v>
+        <v>0.01134787436533333</v>
       </c>
       <c r="R10">
-        <v>92.85871487481506</v>
+        <v>0.102130869288</v>
       </c>
       <c r="S10">
-        <v>0.09014847896310584</v>
+        <v>1.001298994595305E-05</v>
       </c>
       <c r="T10">
-        <v>0.09014847896310584</v>
+        <v>1.113527457939269E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.229894</v>
+      </c>
+      <c r="H11">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J11">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.251742</v>
+      </c>
+      <c r="N11">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O11">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P11">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q11">
+        <v>3.736177975347998</v>
+      </c>
+      <c r="R11">
+        <v>33.62560177813199</v>
+      </c>
+      <c r="S11">
+        <v>0.003296680179834881</v>
+      </c>
+      <c r="T11">
+        <v>0.0036661815502711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.229894</v>
+      </c>
+      <c r="H12">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J12">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.006136</v>
+      </c>
+      <c r="N12">
+        <v>0.018408</v>
+      </c>
+      <c r="O12">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P12">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q12">
+        <v>0.001410629584</v>
+      </c>
+      <c r="R12">
+        <v>0.012695666256</v>
+      </c>
+      <c r="S12">
+        <v>1.244693004815535E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.38420176695295E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.229894</v>
+      </c>
+      <c r="H13">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J13">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.632732</v>
+      </c>
+      <c r="N13">
+        <v>7.265464</v>
+      </c>
+      <c r="O13">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P13">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q13">
+        <v>0.8351432904079998</v>
+      </c>
+      <c r="R13">
+        <v>5.010859742447999</v>
+      </c>
+      <c r="S13">
+        <v>0.0007369028860445808</v>
+      </c>
+      <c r="T13">
+        <v>0.0005463313834492095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.893011</v>
+      </c>
+      <c r="I14">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J14">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.04936133333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.148084</v>
+      </c>
+      <c r="O14">
+        <v>0.002475496704993591</v>
+      </c>
+      <c r="P14">
+        <v>0.002635547730441438</v>
+      </c>
+      <c r="Q14">
+        <v>0.03114718232488889</v>
+      </c>
+      <c r="R14">
+        <v>0.280324640924</v>
+      </c>
+      <c r="S14">
+        <v>2.748324606206704E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.056364711100296E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.893011</v>
+      </c>
+      <c r="I15">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J15">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.251742</v>
+      </c>
+      <c r="N15">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P15">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q15">
+        <v>10.25490879172066</v>
+      </c>
+      <c r="R15">
+        <v>92.29417912548598</v>
+      </c>
+      <c r="S15">
+        <v>0.009048593183393808</v>
+      </c>
+      <c r="T15">
+        <v>0.0100627854615029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.893011</v>
+      </c>
+      <c r="I16">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J16">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006136</v>
+      </c>
+      <c r="N16">
+        <v>0.018408</v>
+      </c>
+      <c r="O16">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P16">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q16">
+        <v>0.003871838498666666</v>
+      </c>
+      <c r="R16">
+        <v>0.034846546488</v>
+      </c>
+      <c r="S16">
+        <v>3.416382549840159E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.799300505249335E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.08219597134768</v>
-      </c>
-      <c r="H11">
-        <v>6.08219597134768</v>
-      </c>
-      <c r="I11">
-        <v>0.1115745867953259</v>
-      </c>
-      <c r="J11">
-        <v>0.1115745867953259</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.62866722869706</v>
-      </c>
-      <c r="N11">
-        <v>3.62866722869706</v>
-      </c>
-      <c r="O11">
-        <v>0.1920339429221856</v>
-      </c>
-      <c r="P11">
-        <v>0.1920339429221856</v>
-      </c>
-      <c r="Q11">
-        <v>22.07026519974261</v>
-      </c>
-      <c r="R11">
-        <v>22.07026519974261</v>
-      </c>
-      <c r="S11">
-        <v>0.02142610783222005</v>
-      </c>
-      <c r="T11">
-        <v>0.02142610783222005</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.893011</v>
+      </c>
+      <c r="I17">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J17">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.632732</v>
+      </c>
+      <c r="N17">
+        <v>7.265464</v>
+      </c>
+      <c r="O17">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P17">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q17">
+        <v>2.292267212017333</v>
+      </c>
+      <c r="R17">
+        <v>13.753603272104</v>
+      </c>
+      <c r="S17">
+        <v>0.002022620960405141</v>
+      </c>
+      <c r="T17">
+        <v>0.001499548079425839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.2719705</v>
+      </c>
+      <c r="H18">
+        <v>14.543941</v>
+      </c>
+      <c r="I18">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J18">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.04936133333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.148084</v>
+      </c>
+      <c r="O18">
+        <v>0.002475496704993591</v>
+      </c>
+      <c r="P18">
+        <v>0.002635547730441438</v>
+      </c>
+      <c r="Q18">
+        <v>0.3589541598406667</v>
+      </c>
+      <c r="R18">
+        <v>2.153724959044</v>
+      </c>
+      <c r="S18">
+        <v>0.000316729307871311</v>
+      </c>
+      <c r="T18">
+        <v>0.000234819491448939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.2719705</v>
+      </c>
+      <c r="H19">
+        <v>14.543941</v>
+      </c>
+      <c r="I19">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J19">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.251742</v>
+      </c>
+      <c r="N19">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O19">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P19">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q19">
+        <v>118.182188397611</v>
+      </c>
+      <c r="R19">
+        <v>709.0931303856659</v>
+      </c>
+      <c r="S19">
+        <v>0.1042800639237821</v>
+      </c>
+      <c r="T19">
+        <v>0.07731204839684293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.2719705</v>
+      </c>
+      <c r="H20">
+        <v>14.543941</v>
+      </c>
+      <c r="I20">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J20">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006136</v>
+      </c>
+      <c r="N20">
+        <v>0.018408</v>
+      </c>
+      <c r="O20">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P20">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q20">
+        <v>0.044620810988</v>
+      </c>
+      <c r="R20">
+        <v>0.267724865928</v>
+      </c>
+      <c r="S20">
+        <v>3.93719314665669E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.918990031733387E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.2719705</v>
+      </c>
+      <c r="H21">
+        <v>14.543941</v>
+      </c>
+      <c r="I21">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J21">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.632732</v>
+      </c>
+      <c r="N21">
+        <v>7.265464</v>
+      </c>
+      <c r="O21">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P21">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q21">
+        <v>26.417119938406</v>
+      </c>
+      <c r="R21">
+        <v>105.668479753624</v>
+      </c>
+      <c r="S21">
+        <v>0.02330959506851442</v>
+      </c>
+      <c r="T21">
+        <v>0.01152097837457506</v>
       </c>
     </row>
   </sheetData>
